--- a/CFT4CUnitSrc/src/report/SubmissionReview.xlsx
+++ b/CFT4CUnitSrc/src/report/SubmissionReview.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7380"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="SoICT2016" sheetId="4" r:id="rId1"/>
+    <sheet name="ACOMP2106" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">ACOMP2106!$2:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">SoICT2016!$2:$3</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t xml:space="preserve">This method in the paper has meaning when GA method was used in some test functions. However the authors only compared improved GA method with traditional GA method when in the present there are many other methods to be used to test functions. The authors only used GA for one triangle classifier example to be inconsequential. There should be many more examples by used improved GA method.
 </t>
@@ -125,13 +125,82 @@
   <si>
     <t>Đã sửa theo comment (thêm rất nhiều giải thích vào section V)</t>
   </si>
+  <si>
+    <t>The paper lacks the analysis of related work compared with the proposed work. It is only an automation of the authors' previous work.</t>
+  </si>
+  <si>
+    <t>How to instrument program to insert fitness function (manually or automatically)? (section 4.2.3).</t>
+  </si>
+  <si>
+    <t>The adjustment should be presented as an algorithm instead of code segment.</t>
+  </si>
+  <si>
+    <t>The examples for experimentation are quite simple. The comparison of experimentation with [27] is not correctly presented and so simple.</t>
+  </si>
+  <si>
+    <t>No future work is mentioned.</t>
+  </si>
+  <si>
+    <t>There are a lot English errors. Many sentences are not correct in terms of grammar!</t>
+  </si>
+  <si>
+    <t>SoICT2016</t>
+  </si>
+  <si>
+    <t>ACOMP2106</t>
+  </si>
+  <si>
+    <t>The presentation should be more formal, describing how constraints are extracted to feed to Z3 and what can be done in case no constraint satisfaction is found. If the solver returns only a set of constraints, can they be used to adjust the genetic algorithm?</t>
+  </si>
+  <si>
+    <t>English usage could be double-checked too, for example "in procedures TO generate new populations", "the experimental results... show",…</t>
+  </si>
+  <si>
+    <t>However the setting for GA were not carefully designed. One of the most important factors of GA is the encodding method, which should support the building block hypothesis.</t>
+  </si>
+  <si>
+    <t>There is a lack of complexity analysis as well as the rate of convergence (of the GA). Only 4 small programes were used in the experiments.</t>
+  </si>
+  <si>
+    <t>There are too much linguistic mistakes. The authors should check the paper before submission.</t>
+  </si>
+  <si>
+    <t>Đã chuyển toàn bộ segment code sang algorithm ở các section 2.2, 4.1.1, 4.1.2, 4.2.6</t>
+  </si>
+  <si>
+    <t>Đã viết kỹ lại ở section 4.2.3 là dùng manually.</t>
+  </si>
+  <si>
+    <t>Ở phần 4.2.1 Population representation, đã mô tả lại kỹ càng về cách biểu diễn 1 chromosome cho 1 test case.</t>
+  </si>
+  <si>
+    <t>Trong các related work thì đều mô tả các approach đã làm với GA. Có thể thấy là các approach này chỉ cải thiện bằng cách thay đổi fitness function or xử lý song song đều ko áp dụng static program analysis.
+Ngoài ra với [27]  có nêu kết quả cụ thể để so sánh với kết quả của paper này.</t>
+  </si>
+  <si>
+    <t>Đã check và sửa lại tiếng Anh cẩn thận</t>
+  </si>
+  <si>
+    <t>Đã sửa lại cách trình bày ở các Algorithm 2～4 để có thể đối ứng được khi Z3 trả về 1 set of constraints</t>
+  </si>
+  <si>
+    <t>Đã sửa lại tiếng Anh theo comment.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -159,7 +228,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -182,11 +251,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -208,6 +314,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E16"/>
+  <dimension ref="B2:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,198 +646,170 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="B3" s="5">
+    <row r="4" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B4" s="5">
+        <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="5">
+      <c r="D4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
+        <f t="shared" ref="B5:B14" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="B6" s="5">
+      <c r="C7" s="10"/>
+      <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="5">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7"/>
       <c r="D10" s="3" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="3" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <f t="shared" si="0"/>
         <v>10</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B13" s="5">
-        <v>11</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="5">
-        <v>13</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="5">
-        <v>14</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C4:C9"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.11811023622047245" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
@@ -728,24 +818,223 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="70" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="5">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B14" s="5">
+        <v>11</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>12</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="5">
+        <v>13</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="5">
+        <v>14</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="C13:C17"/>
+  </mergeCells>
+  <pageMargins left="0.51181102362204722" right="0.11811023622047245" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CFT4CUnitSrc/src/report/SubmissionReview.xlsx
+++ b/CFT4CUnitSrc/src/report/SubmissionReview.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t xml:space="preserve">This method in the paper has meaning when GA method was used in some test functions. However the authors only compared improved GA method with traditional GA method when in the present there are many other methods to be used to test functions. The authors only used GA for one triangle classifier example to be inconsequential. There should be many more examples by used improved GA method.
 </t>
@@ -181,10 +181,16 @@
     <t>Đã check và sửa lại tiếng Anh cẩn thận</t>
   </si>
   <si>
-    <t>Đã sửa lại cách trình bày ở các Algorithm 2～4 để có thể đối ứng được khi Z3 trả về 1 set of constraints</t>
-  </si>
-  <si>
     <t>Đã sửa lại tiếng Anh theo comment.</t>
+  </si>
+  <si>
+    <t>Đã sửa lại cách trình bày ở các Algorithm 2～4 để có thể đối ứng được khi Z3 trả về 1 set of constraints. Ngoài ra đưa ra example3() để minh họa.</t>
+  </si>
+  <si>
+    <t>Đã thêm phần future work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đã thử với các sample phức tạp hơn. </t>
   </si>
 </sst>
 </file>
@@ -208,7 +214,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,6 +233,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -292,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -312,11 +324,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -631,7 +646,7 @@
   <dimension ref="B2:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,9 +661,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
@@ -667,7 +683,7 @@
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -682,7 +698,7 @@
         <f t="shared" ref="B5:B14" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="3" t="s">
         <v>31</v>
       </c>
@@ -695,7 +711,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="3" t="s">
         <v>32</v>
       </c>
@@ -708,29 +724,33 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="3" t="s">
         <v>35</v>
       </c>
@@ -743,14 +763,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
@@ -758,12 +778,12 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="45" x14ac:dyDescent="0.25">
@@ -771,7 +791,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -786,18 +806,20 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="14" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="3" t="s">
         <v>42</v>
       </c>
@@ -820,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,9 +858,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
@@ -870,7 +893,7 @@
       <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -884,7 +907,7 @@
       <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
@@ -896,7 +919,7 @@
       <c r="B7" s="5">
         <v>4</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="3" t="s">
         <v>2</v>
       </c>
@@ -908,7 +931,7 @@
       <c r="B8" s="5">
         <v>5</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -922,7 +945,7 @@
       <c r="B9" s="5">
         <v>6</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
@@ -934,7 +957,7 @@
       <c r="B10" s="5">
         <v>7</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
@@ -946,7 +969,7 @@
       <c r="B11" s="5">
         <v>8</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
@@ -958,7 +981,7 @@
       <c r="B12" s="5">
         <v>9</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
@@ -970,7 +993,7 @@
       <c r="B13" s="5">
         <v>10</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -984,7 +1007,7 @@
       <c r="B14" s="5">
         <v>11</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="3" t="s">
         <v>15</v>
       </c>
@@ -996,7 +1019,7 @@
       <c r="B15" s="5">
         <v>12</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="3" t="s">
         <v>14</v>
       </c>
@@ -1008,7 +1031,7 @@
       <c r="B16" s="5">
         <v>13</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="3" t="s">
         <v>13</v>
       </c>
@@ -1020,7 +1043,7 @@
       <c r="B17" s="5">
         <v>14</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="3" t="s">
         <v>11</v>
       </c>

--- a/CFT4CUnitSrc/src/report/SubmissionReview.xlsx
+++ b/CFT4CUnitSrc/src/report/SubmissionReview.xlsx
@@ -354,6 +354,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>17752</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7877175"/>
+          <a:ext cx="10390477" cy="7210425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -645,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,6 +878,7 @@
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.11811023622047245" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
